--- a/2HPico KiCad design files/Pico2HP BOM.xlsx
+++ b/2HPico KiCad design files/Pico2HP BOM.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="106">
   <si>
     <t>Id</t>
   </si>
@@ -244,24 +244,12 @@
     <t>PinHeader_1x05_P2.54mm_R/A</t>
   </si>
   <si>
-    <t>Power connector - 90 degree mount</t>
-  </si>
-  <si>
     <t>PinHeader_1x04_P2.54mm_R/A</t>
   </si>
   <si>
-    <t>Connects PCB to panel - 90 degree mount</t>
-  </si>
-  <si>
-    <t>Aliexpress</t>
-  </si>
-  <si>
     <t>Don't buy semis from Aliexpress unless you have to -fake and  defective parts are common</t>
   </si>
   <si>
-    <t>pads will fit most small SMT trimpots</t>
-  </si>
-  <si>
     <t>lots of suppliers - roll the dice</t>
   </si>
   <si>
@@ -271,9 +259,6 @@
     <t>Amazon or AliExpress</t>
   </si>
   <si>
-    <t>RP2350-Waveshare - make sure its the right pinout</t>
-  </si>
-  <si>
     <t>5V regulator - most 1117 type regulators have the same pinout</t>
   </si>
   <si>
@@ -283,9 +268,6 @@
     <t>22u 16V</t>
   </si>
   <si>
-    <t>analog switch</t>
-  </si>
-  <si>
     <t>10u 16V</t>
   </si>
   <si>
@@ -322,15 +304,74 @@
     <t>PinHeader_1x05_P2.54mm</t>
   </si>
   <si>
-    <t>Mounts RP2350 module to PCB</t>
+    <t>Digikey,Mouser</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/microchip-technology/MCP6002T-I-SN/500878</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/texas-instruments/SN74LVC1G3157DCKR/562895</t>
+  </si>
+  <si>
+    <t>Power connector - 90 degree mount. Same as J1-J3 but 5 contacts. Slightly longer pins will be a bit more secure connection</t>
+  </si>
+  <si>
+    <t>Mounts RP2350 module to PCB - could just use short wires</t>
+  </si>
+  <si>
+    <t>Connects PCB to panel - 90 degree mount. ~ 3mm solder side to main board, ~ 5mm to panel. See below</t>
+  </si>
+  <si>
+    <t>Digikey,Aliexpress</t>
+  </si>
+  <si>
+    <t>Aliexpress ***</t>
+  </si>
+  <si>
+    <t>*** PT8211 - I bought 10 on AliExpress and had a couple of defective ones. Buy from a couple of different vendors - they are cheap</t>
+  </si>
+  <si>
+    <t>Digikey, AliExpress</t>
+  </si>
+  <si>
+    <t>buy the long ones at cut to length</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/evvo/AMS1117-5-0/24370130</t>
+  </si>
+  <si>
+    <t>see pic below</t>
+  </si>
+  <si>
+    <t>pads will fit most small SMT trimpots. 10k will work too</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/texas-instruments/LM4040DIM3-10-0-NOPB/305141</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/texas-instruments/TL074CDR/276926</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/shenzhen-slkormicro-semicon-co-ltd/1N5819W/26112808</t>
+  </si>
+  <si>
+    <t>RP2350-Waveshare -  get the pinout below</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -358,8 +399,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,6 +414,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2162175</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>94871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="7058024"/>
+          <a:ext cx="3524250" cy="2180847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>218267</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>189833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="9525000"/>
+          <a:ext cx="6466667" cy="5333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -665,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,6 +848,12 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -757,7 +886,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -768,7 +897,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -776,8 +905,14 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
+        <v>100</v>
+      </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -797,7 +932,7 @@
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -816,6 +951,9 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -831,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -865,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -882,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -967,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -984,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -995,7 +1133,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1004,7 +1142,7 @@
         <v>39</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1023,6 +1161,9 @@
       <c r="E19" t="s">
         <v>42</v>
       </c>
+      <c r="G19" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1038,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1057,8 +1198,8 @@
       <c r="E21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>81</v>
+      <c r="G21" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1075,10 +1216,10 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1098,13 +1239,13 @@
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1140,6 +1281,9 @@
       <c r="E25" t="s">
         <v>54</v>
       </c>
+      <c r="G25" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1158,7 +1302,7 @@
         <v>56</v>
       </c>
       <c r="H26" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1175,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1202,8 +1346,8 @@
       <c r="B29" t="s">
         <v>60</v>
       </c>
-      <c r="C29" t="s">
-        <v>77</v>
+      <c r="C29" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1212,10 +1356,10 @@
         <v>61</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1234,8 +1378,11 @@
       <c r="E30" t="s">
         <v>64</v>
       </c>
+      <c r="G30" t="s">
+        <v>99</v>
+      </c>
       <c r="H30" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1243,13 +1390,19 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" t="s">
         <v>92</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="H31" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1257,17 +1410,27 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
       <c r="H32" t="s">
-        <v>94</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
